--- a/svbWebPaymentUsers/QA/dump-qa-account.xlsx
+++ b/svbWebPaymentUsers/QA/dump-qa-account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="39720" yWindow="800" windowWidth="25600" windowHeight="17540" tabRatio="236"/>
+    <workbookView xWindow="32460" yWindow="0" windowWidth="29900" windowHeight="9560" tabRatio="236"/>
   </bookViews>
   <sheets>
     <sheet name="dump-qa-account.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="54">
   <si>
     <t>Account Number</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>Mark Copied and is using</t>
   </si>
 </sst>
 </file>
@@ -209,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +222,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,12 +241,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -246,10 +259,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -579,10 +600,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -597,7 +619,7 @@
     <col min="8" max="8" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -623,7 +645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -649,7 +671,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -675,7 +697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -701,7 +723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -727,7 +749,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -753,7 +775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -779,7 +801,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -805,33 +827,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>5005797</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>20117337</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>30022060</v>
       </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="J9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -857,7 +883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -883,7 +909,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -909,7 +935,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -935,7 +961,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -961,7 +987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -987,7 +1013,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -1767,22 +1793,22 @@
       <c r="A47" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="4">
         <v>5119697</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="4">
         <v>20107366</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="4">
         <v>9462086</v>
       </c>
-      <c r="E47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="E47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H47" t="s">
